--- a/input/data.xlsx
+++ b/input/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Address-Standardization\1-new\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Address-Standardization\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25695" windowHeight="11445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25695" windowHeight="11445" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="主地址" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>人员编号</t>
-  </si>
-  <si>
-    <t>f</t>
   </si>
   <si>
     <t>江西省九江县</t>
@@ -178,6 +175,38 @@
   </si>
   <si>
     <t>江西省余干县</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理后地址</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>比对结果</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>比对结果</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>比对1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>比对2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>比对结果</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理后地址</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1097,56 +1126,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>426</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>34636</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>6325</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1159,27 +1190,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B22"/>
-    </sheetView>
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>426</v>
       </c>
@@ -1187,7 +1220,7 @@
         <v>3601020005</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>426</v>
       </c>
@@ -1195,7 +1228,7 @@
         <v>3604020108</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>426</v>
       </c>
@@ -1203,7 +1236,7 @@
         <v>3601020005</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>426</v>
       </c>
@@ -1211,7 +1244,7 @@
         <v>3604210106</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>426</v>
       </c>
@@ -1219,7 +1252,7 @@
         <v>3604210114</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>426</v>
       </c>
@@ -1227,7 +1260,7 @@
         <v>3601020005</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>426</v>
       </c>
@@ -1235,7 +1268,7 @@
         <v>3601020005</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>426</v>
       </c>
@@ -1243,7 +1276,7 @@
         <v>3604210106</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>426</v>
       </c>
@@ -1251,7 +1284,7 @@
         <v>3601220074</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>426</v>
       </c>
@@ -1259,7 +1292,7 @@
         <v>3608810621</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>426</v>
       </c>
@@ -1267,7 +1300,7 @@
         <v>3601220074</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>426</v>
       </c>
@@ -1275,7 +1308,7 @@
         <v>3604210114</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>426</v>
       </c>
@@ -1283,7 +1316,7 @@
         <v>3604020108</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>6325</v>
       </c>
@@ -1291,7 +1324,7 @@
         <v>3601030137</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>6325</v>
       </c>
@@ -1357,11 +1390,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B9"/>
-    </sheetView>
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1369,76 +1400,79 @@
     <col min="2" max="2" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>6325</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>6325</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>6325</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>6325</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>6325</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1451,92 +1485,97 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C65536"/>
-    </sheetView>
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>34636</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>34636</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>34636</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>6325</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>6325</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6325</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1549,11 +1588,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1561,60 +1598,63 @@
     <col min="2" max="2" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>53</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>34636</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>34636</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>6325</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6325</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1627,132 +1667,134 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="30.125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>3608810621</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>3604210114</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3604210106</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3604020108</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3604020101</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>3603230126</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>3603020346</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>3603020336</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>3603020136</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>3601391129</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>3601390829</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>3601390529</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="21.75" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>3601390229</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>3601220074</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>3601210002</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -1760,7 +1802,7 @@
         <v>3601110322</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -1773,7 +1815,7 @@
         <v>3601030137</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -1781,7 +1823,7 @@
         <v>3601020005</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
